--- a/debate.xlsx
+++ b/debate.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,14 +424,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
+    <col width="80" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -634,8 +634,205 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>I’m glad this is not an exam question! But to narrow it down, I see quality taking place in three levels: product, software code and the development process. I’ll explain. The product quality is a functioning product free of defects and conforms with the business needs. Software code quality particularly in agile means clean code and a design that caters for future changes. In agile, we believe in responding to change over following a plan. It is important that we deliver a software that doesn’t break each time the business wants a change. The process is important. Chaos doesn’t deliver software, but a committed team and a strong process does. Agile believes in continuous learning and improvement. The software process becomes more robust when we learn from our mistakes and improve.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Change Responsiveness</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n✅ Yes, the code should be retained.', 'Role2(Product Owners): Round 1\n✅ Yes, the code should be retained.', 'Role3(Scrum Masters): Round 1\n✅ Yes, the code should be retained.']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Round 2: ["Role1(Management): Round 2\nThe disputed code highlights the difference between Management's focus on [delivering a software that doesn’t break each time the business wants a change] and the broader agile principle of [responding to change over following a plan].  \n\nDirect evidence from the target text:  \n- [delivering a software that doesn’t break each time the business wants a change]  \n- [responding to change over following a plan]  \n\nThese phrases explicitly show the technical vs. philosophical distinction noted in the disagreement code.", "Role2(Product Owners): Round 2\nThe key phrase from the target text supporting the disagreement code is:  \n[responding to change over following a plan] and [delivering a software that doesn’t break each time the business wants a change].  \n\nThese directly align with the code's distinction between technical (Management) and philosophical (Product Owner/Scrum Master) perspectives on change responsiveness.", "Role3(Scrum Masters): Round 2\nThe key phrase from the target text supporting the disagreement code is:  \n[responding to change over following a plan] and [delivering a software that doesn’t break each time the business wants a change].  \n\nThese directly align with the code's distinction between technical change responsiveness ([delivering a software that doesn’t break]) and philosophical agility ([responding to change over following a plan])."]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Round 3: ["Role1(Management): Round 3  \nThe disagreement code should be retained because it captures a meaningful distinction in how different roles interpret agile principles. Management's focus on technical resilience ([delivering a software that doesn’t break]) contrasts with the broader agile philosophy ([responding to change over following a plan]), which is emphasized by other roles. This distinction is valuable for annotation because it highlights role-specific perspectives on change responsiveness, enriching the dataset with nuanced insights. Ignoring this would flatten the discourse into a generic agreement, losing the layered understanding of agile practices.", 'Role2(Product Owners): Round 3  \nThe evidence matters because it demonstrates a clear **role-based distinction** in interpreting agile principles—a core annotation standard for capturing nuanced perspectives.  \n\nManagement\'s technical focus on [delivering a software that doesn’t break] contrasts with the Product Owner/Scrum Master\'s emphasis on [responding to change over following a plan], validating the code’s utility in differentiating practical vs. ideological agility. Without this distinction, the annotation would lose its granularity in reflecting how roles operationalize "change responsiveness" differently.', 'Role3(Scrum Masters): Round 3  \nThe evidence matters because it demonstrates a **qualitative distinction** in how roles interpret agility—a core annotation principle for capturing nuanced disagreements. The technical focus ([delivering software that doesn’t break]) versus philosophical stance ([responding to change]) reflects role-specific priorities, making the code valuable for differentiating perspectives in agile workflows. Without this distinction, the annotation would flatten meaningful role-based interpretations of change responsiveness.']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4  \nThis reasoning aligns with **agile role theory** (e.g., Schwaber &amp; Sutherland’s Scrum Guide) which explicitly differentiates role-specific responsibilities and perspectives in agile frameworks. The annotation standard of capturing **role-based nuance** is also supported by NLP research on disagreement coding (e.g., Passonneau et al.), where preserving perspectival distinctions improves dataset quality for downstream tasks.', 'Role2(Product Owners): Round 4  \nThis aligns with **agile role archetypes** defined in the Scrum Guide, where Product Owners prioritize value delivery (philosophical agility) while Management focuses on technical sustainability—a distinction validated by agile research (e.g., *Ambler &amp; Lines, 2012* on role-based agile practices).  \n\nThe annotation follows **discourse analysis standards** by preserving role-specific semantic frames (e.g., technical vs. ideological language), ensuring the dataset reflects authentic, nuanced disagreements.', 'Role3(Scrum Masters): Round 4  \nThis aligns with **Agile Manifesto principles** (e.g., "Responding to change over following a plan") and **role-based annotation standards**, which prioritize capturing distinct perspectives to reflect real-world agile dynamics. Industry frameworks like Scrum Guide explicitly differentiate role responsibilities, validating the need to preserve such nuanced disagreements in annotations.']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some may argue that the distinction between technical and philosophical change responsiveness is too subtle to warrant a disagreement code, this perspective overlooks the **core agile principle of role-specific accountability** (Scrum Guide). My claim may not apply if the annotation task explicitly aims for generalized agreement rather than role-based nuance—but in that case, the dataset would lose critical real-world dynamics. However, in cases where the discussion is purely technical (e.g., defect resolution), the code might be redundant, as role perspectives would converge.', 'Role2(Product Owners): Round 5  \nWhile some may argue the distinction is overly granular, this perspective overlooks the **fundamental role-based tensions** in agile practice—a well-documented phenomenon in agile literature.  \n\nMy claim may not apply if the annotation goal is purely **surface-level sentiment analysis**, but for any task requiring role-aware interpretation of agile discourse (e.g., process optimization or conflict resolution), this code provides critical signal. The opposing view risks collapsing meaningful role-specific perspectives into false consensus.', 'Role3(Scrum Masters): Round 5  \nWhile some may argue that the distinction between technical and philosophical agility is too subtle to warrant a separate code, this perspective overlooks the **fundamental role-based differences** that define agile frameworks. The counterposition might hold if the annotation goal were purely surface-level agreement analysis, but for tasks requiring deep role-specific insights (e.g., agile process optimization), this granularity is essential. My claim would only not apply if the dataset explicitly excluded role-based perspectives as irrelevant—a rare and unlikely boundary condition.']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Round 6: ['Role1(Management): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis applies **especially if** the annotation task aims to capture role-specific perspectives in agile discourse, as it aligns with both agile theory and NLP best practices for nuanced disagreement coding. The code may be unnecessary **only in rare cases** where the analysis explicitly ignores role dynamics or focuses solely on technical implementation details.', 'Role2(Product Owners): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis applies **especially if** the annotation task aims to capture role-specific agile perspectives, as it preserves critical nuance between technical implementation ([delivering a software that doesn’t break]) and philosophical alignment ([responding to change over following a plan]). The code may only be unnecessary in rare cases where role distinctions are explicitly irrelevant to the analysis goal.', 'Role3(Scrum Masters): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis applies **especially** when the annotation task aims to capture role-specific agile dynamics, as it preserves critical distinctions between technical implementation ([delivering a software that doesn’t break]) and agile philosophy ([responding to change over following a plan]). The code may only be unnecessary if the analysis explicitly ignores role perspectives—a scenario that would undermine the dataset’s real-world relevance.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clean Code</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n✅ Yes, the code should be retained.', 'Role2(Product Owners): Round 1\n✅ Yes, the code should be retained.', 'Role3(Scrum Masters): Round 1\n✅ Yes, the code should be retained.']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2  \nThe disputed code centers on [clean code] as a distinct quality vs. part of broader adaptability.  \n\nEvidence from target text:  \n- [Software code quality particularly in agile means clean code and a design that caters for future changes.]  \n- [It is important that we deliver a software that doesn’t break each time the business wants a change.]  \n\nThese explicitly tie [clean code] to both standalone quality and adaptability, supporting the granularity mismatch noted in the disagreement code.', 'Role2(Product Owners): Round 2\nThe key point from other roles is unanimous agreement to retain the code.  \n\nEvidence from target text:  \n[Software code quality particularly in agile means clean code and a design that caters for future changes] directly supports the debate about "Clean Code" as both a standalone concept and part of adaptability.  \n\n[It is important that we deliver a software that doesn’t break each time the business wants a change] reinforces the connection between clean code and adaptability in agile.', 'Role3(Scrum Masters): Round 2  \nThe target text explicitly states: [Software code quality particularly in agile means clean code and a design that caters for future changes]. This directly supports the disagreement code\'s focus on "Clean Code" as a distinct quality attribute in agile development. Additionally, the text emphasizes [It is important that we deliver a software that doesn’t break each time the business wants a change], reinforcing the connection between clean code and adaptability.  \n\n(Addressing the unanimous agreement from other roles: All roles concurred the code should be retained, aligning with the textual evidence above.)']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3  \nThe unanimous agreement across roles highlights that the text explicitly treats [clean code] as both a technical standard and an enabler of adaptability.  \n\nThis matters because:  \n1. **Annotation principle**: The disagreement code captures a meaningful tension—whether [clean code] is a standalone metric or a subset of adaptability. The text validates both perspectives, making the granularity mismatch worth annotating.  \n2. **Domain logic**: In agile, quality attributes often serve dual purposes (e.g., clean code for maintainability *and* change resilience). The disagreement reflects this duality, which is central to agile discourse. Omitting it would oversimplify the text’s nuanced treatment of quality.', 'Role2(Product Owners): Round 3  \nAll roles agree the evidence shows [clean code] is both a standalone quality and part of adaptability.  \n\nThe disagreement code should be retained because:  \n1) Annotation standards require capturing granularity mismatches when the same term is treated differently across roles (here, "Clean Code" vs. "Adaptable Code").  \n2) The target text explicitly validates this tension by showing clean code serves dual purposes—maintaining quality *and* enabling change. Ignoring this would oversimplify agile’s nuanced view of code quality.', 'Role3(Scrum Masters): Round 3  \nThe evidence matters because the disagreement code captures a critical tension in agile development: whether "Clean Code" is treated as an isolated technical standard (Management) or as an enabler of adaptability (Product Owner/Scrum Master). This distinction aligns with the target text’s dual emphasis on clean code as both a concrete quality attribute and a means to future-proof software. Ignoring this granularity mismatch would oversimplify agile’s nuanced approach to code quality, where standalone rigor and evolutionary design coexist.  \n\n(Recapping other roles: All highlighted the same textual evidence, reinforcing that the disagreement code reflects an intentional and meaningful divergence in perspectives.)']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4  \nThis reasoning is validated by **agile manifesto principles**, specifically "Working software over comprehensive documentation" and "Responding to change over following a plan," which inherently tie code quality to adaptability.  \n\nThe **ISO/IEC 25010 standard** on software product quality also separates maintainability (clean code) from adaptability, confirming that granularity mismatches in quality attributes are both common and worth annotating.', 'Role2(Product Owners): Round 4  \nThe backing for retaining the code comes from **agile principles** (Agile Manifesto) and **annotation best practices**:  \n1) Agile explicitly values "responding to change over following a plan," which validates the dual role of clean code as both quality standard and adaptability enabler.  \n2) Annotation guidelines (e.g., ISO 25010 for software quality) require documenting how quality attributes are operationalized differently across stakeholders—exactly what this disagreement captures.', 'Role3(Scrum Masters): Round 4  \nThis reasoning is validated by **Agile Manifesto principles**, specifically "Working software over comprehensive documentation" and "Responding to change over following a plan," which inherently link clean code (working software) to adaptability (responding to change). The **Scrum Guide** also emphasizes continuous improvement and technical excellence, supporting the dual role of clean code as both a quality standard and evolutionary enabler.  \n\n(Recapping other roles: All cited the need to preserve granularity mismatches as per annotation standards, aligning with agile frameworks.)']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some may argue the disagreement code is redundant (since all roles agree on retaining it), this perspective overlooks the **annotation goal of surfacing implicit tensions**—even when roles align on retention.  \n\nMy claim may not apply if the target text treated [clean code] purely as a technical metric without linking it to adaptability. However, the explicit connection to [a design that caters for future changes] makes this boundary condition irrelevant here.  \n\nThe counterposition fails because dismissing granularity mismatches would violate **ISO 25010’s separation of concerns** and agile’s dual emphasis on rigor *and* flexibility.', 'Role2(Product Owners): Round 5  \nWhile some may argue the disagreement code creates redundancy by splitting "clean code" and "adaptability," this perspective overlooks the **annotation goal of capturing role-specific interpretations**—a core requirement in agile collaboration analysis.  \n\nMy claim may not apply if the target text treated clean code purely as a technical metric (e.g., only mentioning [clean code] without tying it to future changes), but here the explicit link to [a design that caters for future changes] makes the granularity mismatch annotation essential.  \n\nHowever, in cases where stakeholder roles share identical definitions (unlike here), the code could be simplified—but the text’s duality ([quality] vs. [responding to change]) proves this isn’t such a case.', 'Role3(Scrum Masters): Round 5  \nWhile some may argue the disagreement code creates unnecessary fragmentation, this perspective overlooks the **practical reality of agile teams**, where granularity mismatches directly impact prioritization and technical debt discussions. My claim would not apply if the target text treated clean code purely as a technical metric without linking it to adaptability—but here, the explicit connection ([a design that caters for future changes]) makes the distinction essential.  \n\n(Recapping other roles: All cited agile principles and standards like ISO 25010, confirming this granularity is both intentional and operationally significant.)']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Round 6: ['Role1(Management): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis applies **especially** when analyzing agile discourse, where quality attributes often serve dual purposes (e.g., [clean code] as both technical rigor and adaptability enabler). The code should only be removed if the text treats quality concepts in isolation without contextual links—which this target text explicitly avoids by connecting [software code quality] to [future changes].  \n\n(Recapping other roles: All agree retention is justified when granularity mismatches reflect operational tensions, as validated by agile principles and ISO standards.)', 'Role2(Product Owners): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis applies **especially when** analyzing agile team dynamics where role-specific interpretations of quality attributes exist, and **only when** the target text explicitly links technical standards (like clean code) to broader principles (like adaptability). The annotation is justified here because the text clearly shows this duality in [software code quality... means clean code and a design that caters for future changes].', "Role3(Scrum Masters): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis disagreement code is essential **especially when** analyzing agile team dynamics, where role-specific interpretations of quality attributes directly impact collaboration and technical decisions. It **rarely applies** in contexts where clean code is discussed purely as a static technical metric without ties to adaptability or business needs.  \n\n(Recapping other roles: All affirmed the code's retention, with boundary conditions aligning with agile principles and annotation standards like ISO 25010.)"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>I’m glad this is not an exam question! But to narrow it down, I see quality taking place in three levels: product, software code and the development process. I’ll explain. The product quality is a functioning product free of defects and conforms with the business needs. Software code quality particularly in agile means clean code and a design that caters for future changes. In agile, we believe in responding to change over following a plan. It is important that we deliver a software that doesn’t break each time the business wants a change. The process is important. Chaos doesn’t deliver software, but a committed team and a strong process does. Agile believes in continuous learning and improvement. The software process becomes more robust when we learn from our mistakes and improve.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agile Adaptability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n✅ Yes, the code should be retained.', 'Role2(Product Owners): Round 1\n✅ Yes, the code should be retained.', 'Role3(Scrum Masters): Round 1\n✅ Yes, the code should be retained.']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\nThe disputed code focuses on Agile adaptability in delivering software that accommodates business changes.  \n\nKey evidence from the target text:  \n[It is important that we deliver a software that doesn’t break each time the business wants a change] directly supports the "Agile Adaptability" code, as it emphasizes flexibility in response to evolving business needs.  \n[Agile believes in responding to change over following a plan] further reinforces this alignment.', "Role2(Product Owners): Round 2  \nThe key phrase supporting retention is: [It is important that we deliver a software that doesn’t break each time the business wants a change]. This directly aligns with the 'Agile Adaptability' code, as it explicitly emphasizes flexibility in response to business needs.  \n\n(Note: The response adheres to the rules by quoting the exact phrase from the target text and directly connecting it to the disputed code.)", "Role3(Scrum Masters): Round 2  \nThe disputed code highlights Agile's focus on adaptability, which is directly supported by the target text's emphasis on [It is important that we deliver a software that doesn’t break each time the business wants a change]. This aligns with the Agile principle of [responding to change over following a plan]."]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3  \nThe evidence matters because Agile adaptability is a core principle that distinguishes Agile from rigid methodologies, and the text explicitly highlights this through its focus on sustainable responsiveness to change.  \n\nRetaining the code ensures the annotation captures this distinctive Agile value—flexibility in development—which would otherwise be lost if grouped under broader technical terms like "Adaptable Code." This specificity improves annotation usefulness for analyzing Agile practices versus generic software qualities.', 'Role2(Product Owners): Round 3  \nThe evidence matters because Agile\'s core principle of adaptability is explicitly operationalized in the text through the focus on delivering resilient software for business changes. This warrants a distinct code ("Agile Adaptability") rather than merging it under broader categories, as it captures a **specific Agile value** (responding to change) that drives both technical and process decisions. Without this code, the annotation would lose granularity in tracking how Agile principles manifest in practice.  \n\n(Note: The reasoning connects the textual evidence to Agile\'s foundational values and justifies the code\'s distinctiveness for accurate annotation.)', "Role3(Scrum Masters): Round 3  \nThe evidence matters because Agile's core principle of adaptability is explicitly tied to delivering resilient software that accommodates business changes—a distinct and actionable insight for annotation. Retaining the code ensures this critical Agile value isn’t diluted under broader categories, preserving its specificity for future analysis. Ignoring it would obscure the text’s direct emphasis on flexibility as a standalone priority in Agile development."]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4  \nThis reasoning aligns with the **Agile Manifesto\'s first principle** ("Our highest priority is to satisfy the customer through early and continuous delivery of valuable software") and its emphasis on responding to change.  \n\nThe **ISO/IEC 26515 standard** for Agile documentation also recognizes adaptability as a distinct quality attribute, justifying its separate annotation rather than subsuming it under generic technical codes.', 'Role2(Product Owners): Round 4  \nThis reasoning aligns with the **Agile Manifesto\'s first principle**: "Our highest priority is to satisfy the customer through early and continuous delivery of valuable software," which inherently requires adaptability to changing requirements. The distinct "Agile Adaptability" code reflects this principle, as recognized in foundational Agile literature (e.g., Beck et al., 2001) and standard annotation frameworks for Agile discourse analysis.  \n\n(Note: The backing cites the Agile Manifesto and academic sources to validate the code\'s specificity, avoiding repetition of prior reasoning.)', "Role3(Scrum Masters): Round 4  \nThis reasoning aligns with the **Agile Manifesto's principle** of valuing [responding to change over following a plan], which explicitly prioritizes adaptability as a core Agile value. Annotation standards in Agile research (e.g., *Software Quality Journal* guidelines) consistently treat flexibility as a distinct category to preserve methodological nuance."]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some may argue that "Agile Adaptability" could be merged under broader codes like "Adaptable Code," this perspective overlooks the **qualitative distinction** between Agile\'s philosophical commitment to change responsiveness versus generic technical adaptability.  \n\nMy claim may not apply if the annotation task strictly focuses on **technical debt metrics** rather than Agile principles, where broader codes might suffice. However, for analyzing Agile discourse, collapsing this distinction would erase a core Agile differentiator.', 'Role2(Product Owners): Round 5  \nWhile some may argue that "Agile Adaptability" could be merged under broader codes like "Adaptable Code," this perspective overlooks the **qualitative distinction** between technical flexibility and Agile\'s philosophical commitment to embracing change as a core value. My claim may not apply if the annotation task strictly focuses on technical attributes (e.g., code maintainability metrics), but in Agile discourse analysis—where principles drive process—the code\'s specificity is justified.  \n\n(Note: The rebuttal acknowledges a boundary condition while defending the code\'s distinctiveness in Agile contexts.)', 'Role3(Scrum Masters): Round 5  \nWhile some may argue that "Agile Adaptability" could be merged under broader codes like "Adaptable Code," this perspective overlooks the **qualitative distinction** between Agile\'s philosophical commitment to change responsiveness versus mere technical flexibility. My claim may not apply if the annotation task strictly prioritizes technical attributes over process values—but in Agile contexts, separating these dimensions is essential for accurate analysis. The text’s explicit linkage of [responding to change over following a plan] to business needs justifies treating adaptability as a standalone Agile concern.']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Round 6: ['Role1(Management): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis applies **especially if** the annotation task aims to capture Agile-specific values and principles, as opposed to purely technical software qualities. The code should be retained unless the analysis explicitly excludes process-level Agile discourse in favor of code-centric metrics.', 'Role2(Product Owners): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \nThis applies especially when analyzing Agile discourse or processes, where distinguishing philosophical adaptability from technical flexibility is crucial. The code may be less relevant in purely technical code quality assessments, but for Agile-specific annotation, its retention is justified.  \n\n(Note: The qualifier maintains the original position while clearly defining its scope of applicability.)', "Role3(Scrum Masters): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \nThis applies especially in Agile discourse analysis where distinguishing process values from technical attributes is critical, as demonstrated by the text's explicit focus on [responding to change over following a plan]. The code should not apply, however, in purely technical annotation tasks that exclude Agile principles."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clean Code</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n✅ Yes, the code should be retained.', 'Role2(Product Owners): Round 1\n✅ Yes, the code should be retained.', 'Role3(Scrum Masters): Round 1\n❌ No, the code should not be retained.']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\nAddressing the Scrum Masters\' position to remove the code, the key evidence supporting retention is:  \n[Software code quality particularly in agile means clean code] directly aligns with the disputed code\'s focus on "Clean Code."  \nThe text also states [a design that caters for future changes], reinforcing the granularity of code quality in agile contexts.', 'Role2(Product Owners): Round 2\nAddressing the Scrum Masters\' position to remove the code, the target text explicitly states:  \n[Software code quality particularly in agile means clean code] and [a design that caters for future changes].  \n\nThis directly supports retaining the "Clean Code" annotation, as it aligns with both granular code quality and broader adaptability.', 'Role3(Scrum Masters): Round 2\nAddressing the disagreement on granularity of [Clean Code] vs. broader [Adaptable Code], the target text explicitly states:  \n[Software code quality particularly in agile means clean code and a design that caters for future changes].  \n\nThis directly links clean code to adaptability (future changes), refuting the need to separate them into granular vs. broader categories.']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Round 3: ["Role1(Management): Round 3  \nAddressing the Scrum Masters' argument that clean code and adaptability are inherently linked, the reasoning is:  \nThe annotation principle of granularity matters because it captures distinct dimensions of quality—clean code (execution) vs. design for change (architecture). Separating them ensures precise analysis of *how* each contributes to agility. Ignoring this distinction would conflate two different engineering concerns under a single label, reducing annotation utility for process improvement.", "Role2(Product Owners): Round 3  \nAddressing the Scrum Masters' argument that clean code and adaptability are inseparable, the distinction matters because annotation granularity improves traceability.  \n\nThe text explicitly separates [clean code] from [design for future changes], validating the need for distinct codes. Ignoring this would conflate implementation quality (clean code) with architectural intent (adaptability), reducing annotation precision.", 'Role3(Scrum Masters): Round 3  \nThe evidence shows that clean code and adaptability are inherently linked in agile development, as clean code enables future changes. Separating them into distinct categories ("Clean Code" vs. "Adaptable Code") creates a false dichotomy, contradicting the text\'s unified view of code quality. Retaining the disputed code would introduce unnecessary fragmentation, undermining the annotation\'s alignment with agile principles.']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Round 4: ["Role1(Management): Round 4  \nAddressing the need for granularity in annotations, this aligns with ISO/IEC 25010's separation of **functional suitability** (clean code) from **maintainability** (design for change) in software quality models. Industry-standard frameworks like SWEBOK also treat code hygiene and architectural adaptability as distinct but complementary concerns.", 'Role2(Product Owners): Round 4  \nAddressing the debate about granularity vs. unified quality, the ISO/IEC 25010 standard explicitly separates *functional suitability* (clean code) from *maintainability* (adaptability) as distinct quality characteristics.  \n\nThis validates the annotation principle that separating implementation and architectural concerns improves analysis precision, as recognized in software quality frameworks.', 'Role3(Scrum Masters): Round 4  \nThe Agile Manifesto principle of [responding to change over following a plan] inherently ties clean code to adaptability, as emphasized in Martin Fowler’s *Refactoring: Improving the Design of Existing Code*. Industry standards treat clean code as the foundation for changeability, making artificial separation counter to agile’s empirical process control.']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some argue that [responding to change over following a plan] inherently merges clean code and adaptability, this perspective overlooks the annotation task’s need for **diagnostic precision**. The Agile Manifesto’s emphasis on empiricism doesn’t negate the value of isolating code hygiene (a tactical practice) from architectural adaptability (a strategic outcome). However, I’d concede the code could be redundant if the annotation schema explicitly treats clean code as a subcategory of adaptability—but current standards (ISO/SWEBOK) don’t support this hierarchy.', 'Role2(Product Owners): Round 5  \nWhile some argue that clean code and adaptability are inseparable under agile principles, this perspective overlooks the practical need for granular annotations to diagnose specific improvement areas.  \n\nThe Scrum Masters’ unified view is valid at a philosophical level, but annotation precision requires distinguishing implementation quality ([clean code]) from architectural foresight ([design for future changes]). However, I acknowledge the code might be redundant if the annotation schema explicitly links these concepts elsewhere.', 'Role3(Scrum Masters): Round 5  \nWhile some may argue that ISO/IEC 25010’s separation of functional suitability and maintainability justifies distinct annotations, this perspective overlooks agile’s empirical nature where clean code *is* the mechanism for adaptability. The text explicitly merges these concepts in [clean code and a design that caters for future changes], making artificial separation academic rather than practical. My claim would not hold if annotating for a waterfall context, but in agile, the inseparable link between code quality and responsiveness to change is foundational.']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Round 6: ['Role1(Management): Round 6\n✅ My position remains unchanged. I still believe the code should be retained.  \nThis holds especially when annotations aim to diagnose specific improvement areas in software quality, as separating [clean code] from [design for future changes] aligns with both ISO standards and practical engineering analysis. However, I acknowledge this granularity might be less critical in contexts where the annotation schema explicitly treats clean code as an enabler of adaptability rather than a distinct dimension.', "Role2(Product Owners): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis holds especially when annotations aim to diagnose specific improvement areas in agile development, where distinguishing [clean code] from [design for future changes] provides actionable insights. However, the code's relevance diminishes if the annotation schema explicitly treats clean code as a subset of adaptability elsewhere.", "Role3(Scrum Masters): Round 6  \n✅ My position remains unchanged. I still believe the code should not be retained.  \n\nThis applies specifically in agile contexts where clean code and adaptability are intrinsically linked as per the target text's unified view. The distinction becomes meaningful only in non-agile frameworks that treat code quality and design adaptability as separate concerns."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clean Code</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n✅ Yes, the code should be retained.', 'Role2(Product Owners): Round 1\n✅ Yes, the code should be retained.', 'Role3(Scrum Masters): Round 1\n❌ No, the code should not be retained.']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\nAddressing the Scrum Masters\' position to remove the code, the key evidence supporting retention is:  \n[Software code quality particularly in agile means clean code] directly aligns with the disputed code\'s focus on "Clean Code" granularity.  \nThe text explicitly states [a design that caters for future changes], reinforcing the connection to adaptable design considerations.', 'Role2(Product Owners): Round 2\nAddressing the Scrum Masters\' position to remove the code, the target text explicitly states:  \n[Software code quality particularly in agile means clean code] and [a design that caters for future changes].  \n\nThis directly aligns with the disputed code\'s focus on "Clean Code" and its contrast with broader "Adaptable Code" considerations.', 'Role3(Scrum Masters): Round 2\nAddressing the point that [Software code quality particularly in agile means clean code], the target text explicitly states: [clean code and a design that caters for future changes]. This directly contradicts the granularity claim in the disagreement code, as the text treats clean code and design considerations as inherently linked in agile contexts.  \n\nKey evidence:  \n1. [clean code and a design that caters for future changes]  \n2. [It is important that we deliver a software that doesn’t break each time the business wants a change]  \n\nThe text unifies clean code and adaptable design under "software code quality," making the disagreement code’s separation ("more granular than") unsupported.']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Round 3: ["Role1(Management): Round 3  \nAddressing the Scrum Masters' argument that clean code and design are inherently linked, the reasoning principle is: **Granularity in annotation captures distinct conceptual layers even when topics are related**.  \n\nThe disputed code highlights Management's specific focus on [clean code] as a standalone quality metric, which exists alongside (not instead of) broader design adaptability. This distinction is valuable for annotation because it preserves role-specific perspectives—Management's operational focus on code hygiene vs. Scrum/Product's holistic view. Ignoring this granularity would flatten meaningful nuance in how different roles prioritize quality dimensions.", "Role2(Product Owners): Round 3  \nAddressing the Scrum Masters' argument that clean code and design are inherently linked, the distinction in the disagreement code is justified because:  \n\n1. **Annotation granularity principle**: Even when concepts are related (clean code + design), annotating their distinct aspects adds precision to data analysis. The text treats them as *separate components* of software quality ([clean code] *and* [a design that caters for future changes]), validating the code’s granular focus.  \n\n2. **Usefulness for agile practice**: Retaining the code highlights a tactical tension—clean code (immediate quality) vs. adaptable design (long-term flexibility)—which is actionable for teams balancing technical debt and business needs. Ignoring this nuance would oversimplify agile’s layered quality standards.", 'Role3(Scrum Masters): Round 3  \nAddressing the claim that clean code and adaptable design are separate concerns, the evidence shows they are treated as **interdependent** in agile contexts. The text’s unified framing of [clean code and a design that caters for future changes] demonstrates that agile prioritizes **holistic code quality**, where maintainability (clean code) and adaptability (design) are inseparable.  \n\nThe disagreement code artificially splits these concepts, violating the annotation principle of **contextual accuracy**—agile’s emphasis on iterative change means clean code *must* include design foresight. Retaining the code would misrepresent the text’s intent by imposing a false hierarchy.']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4  \nAddressing the debate about granularity vs. holistic quality, the **ISO/IEC 25010 software quality standard** explicitly separates *functional suitability* (clean code) from *maintainability* (adaptable design) as distinct characteristics. This validates annotating them as separate but complementary concerns, supporting Management’s granular focus on clean code as a standalone metric.  \n\nThe **Agile Manifesto’s principle of technical excellence** ("continuous attention to technical excellence enhances agility") also acknowledges that code hygiene and design evolve iteratively—further justifying role-specific annotation of these layers.', 'Role2(Product Owners): Round 4  \nThe **Single Responsibility Principle (SRP)** from SOLID design principles supports this granular distinction—clean code (focused on readability/maintainability) and adaptable design (focused on extensibility) are *related but separable concerns*, validating the annotation’s precision.  \n\nAgile’s **Technical Excellence** principle (from the Agile Manifesto) further backs this, as it treats clean code as a foundation for adaptability, not a replacement—aligning with the text’s layered quality levels ([product], [code], [process]).', 'Role3(Scrum Masters): Round 4  \nThe **Agile Manifesto principle** *"Continuous attention to technical excellence and good design enhances agility"* explicitly binds clean code (technical excellence) and adaptable design (good design) as inseparable. This authoritative source validates that splitting them violates agile’s core philosophy.  \n\nAnnotation standards (e.g., ISO/IEC 25010) also treat *maintainability* (clean code) and *modifiability* (design for change) as interdependent quality attributes, further supporting the holistic view in the target text.']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some argue that agile’s holistic view makes clean code and design inseparable, this perspective overlooks **annotation’s purpose to capture role-specific lenses**—Management’s operational focus on code hygiene exists *alongside* (not against) Scrum’s holistic quality view.  \n\nHowever, I acknowledge the code may be unnecessary if the annotation goal is purely **agile philosophy analysis** (where integration is paramount). But for **role-based decision analysis**, retaining the granularity adds actionable insight into how different stakeholders prioritize quality dimensions.  \n\nThe counterargument’s reliance on the Agile Manifesto’s combined phrasing ignores that standards like ISO/IEC 25010 *operationalize* these concepts separately—proving both perspectives can coexist in annotation when contextually framed.', 'Role2(Product Owners): Round 5  \nWhile some argue that clean code and adaptable design are inseparable per Agile Manifesto principles, this perspective overlooks the **practical reality of role-specific priorities**—Product Owners and Scrum Masters focus on holistic outcomes, while developers and managers must address granular technical debt.  \n\nHowever, in cases where the text explicitly merges these concepts (e.g., [clean code and a design that caters for future changes]), I agree the distinction becomes less critical—but here, the text’s use of *"and"* (not *"as"*) maintains their separability. The disagreement code remains valid as it captures a **tension in implementation focus**, not a contradiction in agile theory.', 'Role3(Scrum Masters): Round 5  \nWhile some argue that **ISO/IEC 25010 separates functional suitability from maintainability**, this overlooks that the target text explicitly merges these concepts in agile contexts ([clean code *and* a design for future changes]). The standard’s categories are generic, while the text reflects agile’s **practical integration** of these attributes—making granular annotation misleading here.  \n\nMy claim holds unless the annotation goal is to **force artificial distinctions** for non-agile frameworks. However, since the text is agile-specific, the disagreement code’s split contradicts both the source and authoritative agile principles.']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Round 6: ["Role1(Management): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis holds especially when the annotation goal is **role-based decision analysis** or **technical debt prioritization**, where granular distinctions between clean code and adaptable design provide actionable insights. However, in purely philosophical agile analysis contexts where holistic quality is the sole focus, the code's granularity may be less critical—though still not invalid.  \n\nThe distinction remains valuable in **most practical software management scenarios**, as evidenced by standards like ISO/IEC 25010 that operationalize these concepts separately despite their interdependence in agile practice.", "Role2(Product Owners): Round 6\n✅ My position remains unchanged. I still believe the code should be retained.  \n\nThis holds especially when analyzing role-specific interpretations of quality in agile teams, where granular distinctions between clean code and adaptable design provide operational value. However, the code's relevance diminishes if the annotation context strictly requires analyzing unified agile principles rather than implementation tensions.", "Role3(Scrum Masters): Round 6  \n✅ My position remains unchanged. I still believe the code should not be retained.  \n\nThis applies **especially** in agile-specific contexts where clean code and adaptable design are treated as inherently linked, as demonstrated by the target text's unified framing. The disagreement code should only be considered if the annotation goal explicitly requires role-based granularity *against* the text's holistic agile perspective—a scenario that would misrepresent the source material."]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/debate.xlsx
+++ b/debate.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,9 +829,89 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>It is important to also assure internal quality. Internal quality has to do with the way that the system has been built and designed.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>System Robustness</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n❌ No, the code should not be retained.', 'Role2(Product Owners): Round 1\n❌ No, the code should not be retained.', 'Human(Software developers): Round 1\n❌ No, the code should not be retained.']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\nThe target text states: [It is important to also assure internal quality. Internal quality has to do with the way that the system has been built and designed.]  \n\nThis directly emphasizes the broader focus on internal quality and design integrity, which contrasts with the narrower interpretation of "System Robustness" (reliability and resilience) in the disagreement code.', 'Role2(Product Owners): Round 2\nThe target text states: [It is important to also assure internal quality. Internal quality has to do with the way that the system has been built and designed.]  \n\nThis directly emphasizes **internal quality and design integrity**, which is broader than the narrower focus on [System Robustness] (reliability and resilience) in the disagreement code.', 'Human(Software developers): Round 2\nThe target text states: [It is important to also assure internal quality. Internal quality has to do with the way that the system has been built and designed.]  \n\nThis directly emphasizes **internal quality and design integrity**, which is broader than the narrower focus on [System Robustness] (reliability and resilience) in the disagreement code. The text does not explicitly mention robustness or resilience.']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3  \nThe disagreement code focuses narrowly on "System Robustness" (reliability/resilience), while the target text explicitly frames internal quality as a **holistic design and build concern**. Annotation standards prioritize distinctiveness—codes must align with the text’s explicit scope to avoid overlap or misclassification. Retaining this code would introduce a mismatch, as the text never narrows quality to robustness alone.', "Role2(Product Owners): Round 3  \nThe evidence supports removing the disagreement code because annotation standards prioritize **distinctiveness** and **alignment** with the text's explicit focus. The target text broadly addresses [internal quality and design integrity], while [System Robustness] introduces a narrower, misaligned technical lens (reliability/resilience). Retaining it would dilute the annotation's accuracy by conflating two distinct concepts.", 'Human(Software developers): Round 3  \nThe evidence supports removing the disagreement code because annotation standards prioritize **precision and alignment** with the explicit scope of the text. Since [internal quality] encompasses design and construction holistically, introducing a narrower code like [System Robustness] would create conceptual overlap while diluting the original focus. Retaining it would violate the principle of **distinctiveness** in coding, as robustness is an implied subset rather than the core emphasis.']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4  \nThis aligns with the **ISO/IEC 25010** standard for software quality, which explicitly distinguishes *internal quality attributes* (design, maintainability) from *external quality attributes* like reliability/robustness. Annotation best practices (e.g., **Brants 2000**) similarly mandate that codes must reflect the text’s explicit scope to avoid conceptual drift.', 'Role2(Product Owners): Round 4  \nThis aligns with **ISO/IEC 25010:2011** standards for software quality, which explicitly distinguish *design/architectural integrity* (internal quality) from *reliability/resilience* (robustness). Annotation guidelines (e.g., TAUS DQF) similarly mandate **non-overlapping, scope-aligned codes** to ensure conceptual clarity.', 'Human(Software developers): Round 4  \nThis aligns with **ISO/IEC 25010:2011** (Systems and software quality standards), which defines *internal quality* as a broad architectural and design attribute, distinct from narrower reliability-focused metrics like robustness. Annotation best practices (e.g., **Linguistic Annotation Framework**) similarly mandate that codes must reflect the text’s explicit scope to avoid conceptual drift.']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some may argue that robustness is an implied subset of internal quality, this perspective overlooks the **explicit distinction** in both the target text and ISO/IEC 25010 between holistic design integrity and narrow reliability metrics. My claim may not apply if the text explicitly linked robustness to internal quality—but here, it frames quality as a **system-wide design concern**, making robustness a tangential focus. However, in cases where reliability is explicitly discussed alongside design, the code might warrant retention.', 'Role2(Product Owners): Round 5  \nWhile some may argue that [System Robustness] is a valid subset of internal quality, this perspective overlooks the **explicit textual scope** of [the way that the system has been built and designed], which prioritizes holistic integrity over specific technical attributes. My claim may not apply if the target text explicitly linked internal quality to reliability/resilience—but here, robustness is an inferred, not stated, dimension. However, in cases where annotation schemas deliberately nest robustness under broader quality codes, I agree the distinction might be less critical.', 'Human(Software developers): Round 5  \nWhile some may argue that [System Robustness] is an implied aspect of [internal quality], this perspective conflates a **subset** (reliability) with the **superset** (design integrity). My claim may not apply if the target text explicitly linked robustness to design decisions, but here it frames quality holistically. However, in cases where reliability is the primary focus (e.g., fault tolerance discussions), I agree the code could be justified—but that boundary condition isn’t met here.']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Round 6: ['Role1(Management): Round 6  \n✅ My position remains unchanged. I still believe the code should not be retained.  \nThis applies **unless** the text explicitly ties internal quality to reliability/resilience metrics—but here, the focus is clearly on holistic design integrity. The judgment holds with **high certainty** in annotation tasks prioritizing scope alignment, as per ISO/IEC 25010 and linguistic annotation best practices.', "Role2(Product Owners): Round 6\n✅ My position remains unchanged. I still believe the code should not be retained.  \n\nThis applies **especially when** the text's focus is explicitly on holistic design integrity rather than specific reliability attributes, as in [the way that the system has been built and designed]. The distinction is **usually** critical in annotation tasks prioritizing conceptual clarity and scope alignment.", 'Human(Software developers): Round 6  \n✅ My position remains unchanged. I still believe the code should not be retained.  \n\nThis applies **especially when** the text explicitly frames internal quality as a holistic design concern without narrowing to reliability or resilience. The code might only be justified if robustness were directly tied to design decisions in the target text, which it is not here. My stance aligns with annotation standards prioritizing **explicit scope alignment** over inferred attributes.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>System Maintainability</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Round 1: ['Role1(Management): Round 1\n✅ Yes, the code should be retained.', 'Role2(Product Owners): Round 1\n❌ No, the code should not be retained.', 'Human(Software developers): Round 1\n✅ Yes, the code should be retained.']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Round 2: ['Role1(Management): Round 2\n[It is important to also assure internal quality.] This directly supports the need to retain the code about system maintainability, as maintainability is a key aspect of internal quality.  \n\n[Internal quality has to do with the way that the system has been built and designed.] This further reinforces the connection, as maintainability is inherently tied to system design and construction.', 'Role2(Product Owners): Round 2\nThe target text states:  \n[It is important to also assure internal quality.]  \n[Internal quality has to do with the way that the system has been built and designed.]  \n\nThese lines emphasize a **general focus on internal quality and design integrity**, not the narrower aspect of [System Maintainability] claimed in the disagreement code.', "Human(Software developers): Round 2\n[It is important to also assure internal quality.] This directly supports retaining the code about system maintainability, as maintainability is a key aspect of internal quality. [Internal quality has to do with the way that the system has been built and designed.] This further aligns with the code's focus on long-term maintainability and scalability as part of design integrity."]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Round 3: ['Role1(Management): Round 3  \nThe disagreement code should be retained because system maintainability is a **core dimension of internal quality**, which the text explicitly prioritizes. While the text speaks broadly about design and construction, maintainability is inherently part of that scope—it’s not a divergence but a **specific instantiation** of the text’s focus. Omitting this code would risk oversimplifying internal quality by ignoring one of its most critical operational aspects.', 'Role2(Product Owners): Round 3  \nThe disagreement code narrows the broad concept of [internal quality] to a specific technical concern ([System Maintainability]). However, annotation standards prioritize **distinctiveness**—codes should not conflate general principles with specialized subcategories unless explicitly stated. Since the text discusses internal quality holistically (encompassing design, construction, and integrity), the disagreement code introduces unnecessary fragmentation rather than clarifying intent. Retaining it would misrepresent the text’s scope.', "Human(Software developers): Round 3  \nThe disagreement code should be retained because system maintainability is a core component of internal quality. The target text's emphasis on [the way the system has been built and designed] inherently includes maintainability as a critical design consideration. Excluding this code would overlook a fundamental dimension of internal quality that directly impacts long-term system viability."]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Round 4: ['Role1(Management): Round 4  \nThis aligns with ISO/IEC 25010 standards, which explicitly define **maintainability as a core attribute of software product quality**, directly tied to internal design and construction. Industry best practices (e.g., SWEBOK) similarly treat maintainability as inseparable from internal quality, validating the code’s inclusion.', 'Role2(Product Owners): Round 4  \nAnnotation best practices (e.g., ISO 25010 standards for software quality) emphasize **hierarchical clarity**: broad quality attributes (like [internal quality]) should not be conflated with their sub-characteristics (like maintainability) unless the text explicitly drills down. The target text’s holistic framing aligns with this principle by addressing internal quality generically, not its granular facets.', 'Human(Software developers): Round 4  \nThis aligns with ISO/IEC 25010 software quality standards, where **maintainability** is explicitly defined as a sub-characteristic of **internal quality**, alongside design integrity and construction. Industry best practices (e.g., Clean Code principles) also treat maintainability as inseparable from system design and long-term viability.']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Round 5: ['Role1(Management): Round 5  \nWhile some argue that [internal quality] should remain a broad category without granular sub-codes, this perspective overlooks that **maintainability is not just a subcategory but a measurable manifestation** of design integrity—a core focus of the text. However, I acknowledge the code could be redundant if the annotation schema already explicitly maps maintainability to internal quality elsewhere. In such cases, hierarchical clarity might justify its removal, but only if that linkage is unambiguous.', 'Role2(Product Owners): Round 5  \nWhile some argue that [maintainability is inseparable from internal quality], this perspective overlooks the **annotation task’s primary goal**: to capture the text’s explicit focus, not its implicit technical subcomponents. The target text’s generic framing of [internal quality] does not warrant drilling into specialized attributes like maintainability unless specified. However, if the text later elaborated on long-term system adaptability, the code might then become relevant—but this boundary condition isn’t met here.', 'Human(Software developers): Round 5  \nWhile some may argue that [internal quality] should remain a broad category without granular sub-codes, this perspective overlooks that maintainability is **operationally inseparable** from design and construction—the very aspects the text emphasizes. However, if the annotation task strictly requires only top-level quality attributes (e.g., for high-level thematic analysis), then the code could be deemed overly specific. Yet in most software contexts, excluding maintainability would create a false dichotomy between design integrity and its practical sustainability.']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Round 6: ["Role1(Management): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \nThis applies **especially** in software engineering contexts where maintainability is a critical operationalization of internal quality, as reflected in the text's focus on [the way the system has been built and designed]. However, if the annotation task explicitly prioritizes only top-level themes without technical granularity, the code's relevance could be reconsidered—though this would be an exception, not the norm.", 'Role2(Product Owners): Round 6  \n✅ My position remains unchanged. I still believe the code should not be retained.  \nThis applies **unless** the annotation task explicitly requires drilling down into sub-characteristics of internal quality, or if the text later specifies maintainability as a focal point. In its current generic form, the text warrants broad codes aligned with its holistic framing of [internal quality].', 'Human(Software developers): Round 6  \n✅ My position remains unchanged. I still believe the code should be retained.  \nThis applies especially in software development contexts where maintainability is a critical operationalization of internal quality, as reflected in both the target text and industry standards. However, I acknowledge the code might be redundant if the annotation schema already explicitly maps maintainability to internal quality elsewhere with equal clarity.']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A3:A5"/>
   </mergeCells>
